--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Adroit Infotech Ltd/Pruned_Excel/Final_Parameters/Adroit Infotech Ltd_Cleaned_Data_Updated.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Adroit Infotech Ltd/Pruned_Excel/Final_Parameters/Adroit Infotech Ltd_Cleaned_Data_Updated.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\OneDrive\Desktop\Kishan\Contractzy\WebScrapping\Tutorial\Financial_Data\MoneyControl\Companies\IT Services &amp; Consulting\Adroit Infotech Ltd\Pruned_Excel\Final_Parameters\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785A1591-DD3F-4C44-A6DE-75D1589951D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Balance_Sheet" sheetId="1" r:id="rId1"/>
@@ -13,7 +19,7 @@
     <sheet name="Quarterly" sheetId="4" r:id="rId4"/>
     <sheet name="Ratio" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -458,8 +464,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -522,13 +528,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -566,7 +580,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -600,6 +614,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -634,9 +649,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -809,14 +825,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="6" max="6" width="17.88671875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -857,7 +877,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -898,7 +918,7 @@
         <v>16.93</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -939,7 +959,7 @@
         <v>27.97</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -974,13 +994,13 @@
         <v>6.39</v>
       </c>
       <c r="L4">
-        <v>20.24</v>
+        <v>20.239999999999998</v>
       </c>
       <c r="M4">
         <v>26.63</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1021,7 +1041,7 @@
         <v>21.11</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1047,10 +1067,10 @@
         <v>23.54</v>
       </c>
       <c r="I6">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="J6">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="K6">
         <v>5.56</v>
@@ -1062,7 +1082,7 @@
         <v>23.54</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1079,10 +1099,10 @@
         <v>13.64</v>
       </c>
       <c r="F7">
-        <v>9.880000000000001</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="G7">
-        <v>10.04</v>
+        <v>10.039999999999999</v>
       </c>
       <c r="H7">
         <v>23.67</v>
@@ -1103,7 +1123,7 @@
         <v>23.67</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1144,7 +1164,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1176,7 +1196,7 @@
         <v>2.46</v>
       </c>
       <c r="K9">
-        <v>4.61</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="L9">
         <v>11.92</v>
@@ -1185,7 +1205,7 @@
         <v>16.53</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1199,7 +1219,7 @@
         <v>-1.37</v>
       </c>
       <c r="E10">
-        <v>16.1</v>
+        <v>16.100000000000001</v>
       </c>
       <c r="F10">
         <v>0.09</v>
@@ -1208,7 +1228,7 @@
         <v>0.23</v>
       </c>
       <c r="H10">
-        <v>16.33</v>
+        <v>16.329999999999998</v>
       </c>
       <c r="I10">
         <v>2.33</v>
@@ -1223,10 +1243,10 @@
         <v>13.66</v>
       </c>
       <c r="M10">
-        <v>16.33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16.329999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1267,7 +1287,7 @@
         <v>16.18</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1290,7 +1310,7 @@
         <v>0.46</v>
       </c>
       <c r="H12">
-        <v>19.56</v>
+        <v>19.559999999999999</v>
       </c>
       <c r="I12">
         <v>0.04</v>
@@ -1305,10 +1325,10 @@
         <v>16.41</v>
       </c>
       <c r="M12">
-        <v>19.56</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>19.559999999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1322,7 +1342,7 @@
         <v>0.09</v>
       </c>
       <c r="E13">
-        <v>17.56</v>
+        <v>17.559999999999999</v>
       </c>
       <c r="F13">
         <v>0.32</v>
@@ -1343,13 +1363,13 @@
         <v>11.14</v>
       </c>
       <c r="L13">
-        <v>8.109999999999999</v>
+        <v>8.11</v>
       </c>
       <c r="M13">
         <v>19.25</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1384,13 +1404,13 @@
         <v>3.43</v>
       </c>
       <c r="L14">
-        <v>20.17</v>
+        <v>20.170000000000002</v>
       </c>
       <c r="M14">
         <v>23.6</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1431,7 +1451,7 @@
         <v>33.04</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1472,7 +1492,7 @@
         <v>34.31</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1489,13 +1509,13 @@
         <v>6.31</v>
       </c>
       <c r="F17">
-        <v>10.05</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="G17">
         <v>10.94</v>
       </c>
       <c r="H17">
-        <v>17.4</v>
+        <v>17.399999999999999</v>
       </c>
       <c r="I17">
         <v>0.4</v>
@@ -1510,10 +1530,10 @@
         <v>4.95</v>
       </c>
       <c r="M17">
-        <v>17.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1539,7 +1559,7 @@
         <v>14.59</v>
       </c>
       <c r="I18">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J18">
         <v>8.94</v>
@@ -1554,7 +1574,7 @@
         <v>14.59</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1577,7 +1597,7 @@
         <v>4.62</v>
       </c>
       <c r="H19">
-        <v>17.51</v>
+        <v>17.510000000000002</v>
       </c>
       <c r="I19">
         <v>1.23</v>
@@ -1592,10 +1612,10 @@
         <v>6.7</v>
       </c>
       <c r="M19">
-        <v>17.51</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>17.510000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1636,7 +1656,7 @@
         <v>30.65</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1671,7 +1691,7 @@
         <v>31.02</v>
       </c>
       <c r="L21">
-        <v>10.05</v>
+        <v>10.050000000000001</v>
       </c>
       <c r="M21">
         <v>41.08</v>
@@ -1683,14 +1703,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="27" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1719,7 +1744,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1748,7 +1773,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1777,21 +1802,21 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4">
-        <v>-4.86</v>
+        <v>-4.8600000000000003</v>
       </c>
       <c r="C4">
-        <v>-4.14</v>
+        <v>-4.1399999999999997</v>
       </c>
       <c r="D4">
         <v>-3.51</v>
       </c>
       <c r="E4">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1806,7 +1831,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1835,7 +1860,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1864,7 +1889,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1893,7 +1918,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1922,7 +1947,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1942,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="H9">
         <v>0.05</v>
@@ -1951,7 +1976,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1980,7 +2005,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2009,7 +2034,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2017,7 +2042,7 @@
         <v>0.21</v>
       </c>
       <c r="C12">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="D12">
         <v>-2.66</v>
@@ -2038,7 +2063,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2067,7 +2092,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2075,7 +2100,7 @@
         <v>1.45</v>
       </c>
       <c r="C14">
-        <v>0.6899999999999999</v>
+        <v>0.69</v>
       </c>
       <c r="D14">
         <v>3.65</v>
@@ -2096,7 +2121,7 @@
         <v>6.63</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2104,13 +2129,13 @@
         <v>2.54</v>
       </c>
       <c r="C15">
-        <v>-2.18</v>
+        <v>-2.1800000000000002</v>
       </c>
       <c r="D15">
         <v>-1.81</v>
       </c>
       <c r="E15">
-        <v>-2.55</v>
+        <v>-2.5499999999999998</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2125,7 +2150,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2133,7 +2158,7 @@
         <v>-1.35</v>
       </c>
       <c r="C16">
-        <v>8.630000000000001</v>
+        <v>8.6300000000000008</v>
       </c>
       <c r="D16">
         <v>-8.69</v>
@@ -2154,7 +2179,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2183,7 +2208,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2212,7 +2237,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2220,10 +2245,10 @@
         <v>0.61</v>
       </c>
       <c r="C19">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="D19">
-        <v>-1.12</v>
+        <v>-1.1200000000000001</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2238,10 +2263,10 @@
         <v>0.02</v>
       </c>
       <c r="I19">
-        <v>0.07000000000000001</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2261,21 +2286,21 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H20">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I20">
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="B21">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="C21">
         <v>0.75</v>
@@ -2305,14 +2330,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="15" max="15" width="21.109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -2380,7 +2408,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2448,7 +2476,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="3" spans="1:22">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2465,13 +2493,13 @@
         <v>0.02</v>
       </c>
       <c r="F3">
-        <v>10.03</v>
+        <v>10.029999999999999</v>
       </c>
       <c r="G3">
         <v>13.28</v>
       </c>
       <c r="H3">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="I3">
         <v>0.01</v>
@@ -2480,7 +2508,7 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="L3">
         <v>9.31</v>
@@ -2516,7 +2544,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="4" spans="1:22">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2572,10 +2600,10 @@
         <v>-4.84</v>
       </c>
       <c r="S4">
-        <v>-4.86</v>
+        <v>-4.8600000000000003</v>
       </c>
       <c r="T4">
-        <v>-4.86</v>
+        <v>-4.8600000000000003</v>
       </c>
       <c r="U4">
         <v>-2.37</v>
@@ -2584,7 +2612,7 @@
         <v>-2.37</v>
       </c>
     </row>
-    <row r="5" spans="1:22">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2610,7 +2638,7 @@
         <v>0.02</v>
       </c>
       <c r="I5">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="J5">
         <v>0.5</v>
@@ -2652,18 +2680,18 @@
         <v>-0.49</v>
       </c>
     </row>
-    <row r="6" spans="1:22">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="C6">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="D6">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="E6">
         <v>5.35</v>
@@ -2720,7 +2748,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="7" spans="1:22">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2788,7 +2816,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="8" spans="1:22">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2856,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2894,10 +2922,10 @@
         <v>9.52</v>
       </c>
       <c r="M9">
-        <v>-9.130000000000001</v>
+        <v>-9.1300000000000008</v>
       </c>
       <c r="N9">
-        <v>-9.130000000000001</v>
+        <v>-9.1300000000000008</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2909,7 +2937,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>-9.130000000000001</v>
+        <v>-9.1300000000000008</v>
       </c>
       <c r="S9">
         <v>-15.64</v>
@@ -2924,7 +2952,7 @@
         <v>-6.59</v>
       </c>
     </row>
-    <row r="10" spans="1:22">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2992,7 +3020,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:22">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -3060,7 +3088,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:22">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -3095,7 +3123,7 @@
         <v>1.9</v>
       </c>
       <c r="L12">
-        <v>9.449999999999999</v>
+        <v>9.4499999999999993</v>
       </c>
       <c r="M12">
         <v>0.21</v>
@@ -3116,10 +3144,10 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-0.5600000000000001</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="T12">
-        <v>-0.5600000000000001</v>
+        <v>-0.56000000000000005</v>
       </c>
       <c r="U12">
         <v>-0.32</v>
@@ -3128,7 +3156,7 @@
         <v>-0.32</v>
       </c>
     </row>
-    <row r="13" spans="1:22">
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3163,7 +3191,7 @@
         <v>0.99</v>
       </c>
       <c r="L13">
-        <v>8.369999999999999</v>
+        <v>8.3699999999999992</v>
       </c>
       <c r="M13">
         <v>2.36</v>
@@ -3196,7 +3224,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -3213,7 +3241,7 @@
         <v>0.06</v>
       </c>
       <c r="F14">
-        <v>4.27</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -3264,7 +3292,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3314,7 +3342,7 @@
         <v>-0.02</v>
       </c>
       <c r="Q15">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="R15">
         <v>1.99</v>
@@ -3326,13 +3354,13 @@
         <v>1.99</v>
       </c>
       <c r="U15">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="V15">
-        <v>1.09</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22">
+        <v>1.0900000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3400,7 +3428,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:22">
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -3414,7 +3442,7 @@
         <v>8.02</v>
       </c>
       <c r="E17">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F17">
         <v>8.16</v>
@@ -3468,7 +3496,7 @@
         <v>-7.84</v>
       </c>
     </row>
-    <row r="18" spans="1:22">
+    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -3497,7 +3525,7 @@
         <v>0.18</v>
       </c>
       <c r="J18">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="K18">
         <v>1.06</v>
@@ -3536,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -3604,7 +3632,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="20" spans="1:22">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -3627,10 +3655,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.15</v>
+        <v>1.1499999999999999</v>
       </c>
       <c r="I20">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J20">
         <v>1.25</v>
@@ -3651,7 +3679,7 @@
         <v>0.03</v>
       </c>
       <c r="P20">
-        <v>-0.55</v>
+        <v>-0.55000000000000004</v>
       </c>
       <c r="Q20">
         <v>-0.52</v>
@@ -3672,7 +3700,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -3701,7 +3729,7 @@
         <v>0.11</v>
       </c>
       <c r="J21">
-        <v>1.13</v>
+        <v>1.1299999999999999</v>
       </c>
       <c r="K21">
         <v>2.06</v>
@@ -3710,10 +3738,10 @@
         <v>4.82</v>
       </c>
       <c r="M21">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="N21">
-        <v>2.03</v>
+        <v>2.0299999999999998</v>
       </c>
       <c r="O21">
         <v>0.01</v>
@@ -3746,14 +3774,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:T46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A28" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="12.5546875" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" customWidth="1"/>
+    <col min="11" max="11" width="16.21875" customWidth="1"/>
+    <col min="13" max="13" width="9.77734375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -3815,7 +3849,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>82</v>
       </c>
@@ -3853,7 +3887,7 @@
         <v>17.47</v>
       </c>
     </row>
-    <row r="3" spans="1:20">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>83</v>
       </c>
@@ -3888,7 +3922,7 @@
         <v>17.47</v>
       </c>
     </row>
-    <row r="4" spans="1:20">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>84</v>
       </c>
@@ -3905,7 +3939,7 @@
         <v>0.03</v>
       </c>
       <c r="F4">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G4">
         <v>0.24</v>
@@ -3929,19 +3963,19 @@
         <v>17.47</v>
       </c>
       <c r="Q4">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="R4">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="S4">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="T4">
-        <v>0.14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>0.14000000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>85</v>
       </c>
@@ -3991,7 +4025,7 @@
         <v>-0.01</v>
       </c>
     </row>
-    <row r="6" spans="1:20">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>86</v>
       </c>
@@ -4032,7 +4066,7 @@
         <v>17.47</v>
       </c>
     </row>
-    <row r="7" spans="1:20">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>87</v>
       </c>
@@ -4085,7 +4119,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="8" spans="1:20">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>88</v>
       </c>
@@ -4138,7 +4172,7 @@
         <v>0.41</v>
       </c>
     </row>
-    <row r="9" spans="1:20">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>89</v>
       </c>
@@ -4149,7 +4183,7 @@
         <v>3.47</v>
       </c>
       <c r="D9">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4194,7 +4228,7 @@
         <v>0.39</v>
       </c>
     </row>
-    <row r="10" spans="1:20">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>90</v>
       </c>
@@ -4247,7 +4281,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:20">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>91</v>
       </c>
@@ -4303,7 +4337,7 @@
         <v>-0.19</v>
       </c>
     </row>
-    <row r="12" spans="1:20">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>92</v>
       </c>
@@ -4359,7 +4393,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>93</v>
       </c>
@@ -4412,15 +4446,15 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="14" spans="1:20">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>94</v>
       </c>
       <c r="B14">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="C14">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="D14">
         <v>0.54</v>
@@ -4468,7 +4502,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>95</v>
       </c>
@@ -4524,7 +4558,7 @@
         <v>0.27</v>
       </c>
     </row>
-    <row r="16" spans="1:20">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>96</v>
       </c>
@@ -4565,10 +4599,10 @@
         <v>0.1</v>
       </c>
       <c r="N16">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="O16">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="P16">
         <v>18.07</v>
@@ -4586,15 +4620,15 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>97</v>
       </c>
       <c r="B17">
-        <v>8.390000000000001</v>
+        <v>8.39</v>
       </c>
       <c r="C17">
-        <v>8.390000000000001</v>
+        <v>8.39</v>
       </c>
       <c r="D17">
         <v>2.77</v>
@@ -4648,7 +4682,7 @@
         <v>0.76</v>
       </c>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>98</v>
       </c>
@@ -4710,7 +4744,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>99</v>
       </c>
@@ -4742,10 +4776,10 @@
         <v>0.02</v>
       </c>
       <c r="K19">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="L19">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="M19">
         <v>0.03</v>
@@ -4772,7 +4806,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>100</v>
       </c>
@@ -4786,7 +4820,7 @@
         <v>2.85</v>
       </c>
       <c r="E20">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F20">
         <v>2.63</v>
@@ -4828,7 +4862,7 @@
         <v>-0.93</v>
       </c>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>101</v>
       </c>
@@ -4842,7 +4876,7 @@
         <v>3.01</v>
       </c>
       <c r="E21">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F21">
         <v>1.88</v>
@@ -4869,28 +4903,28 @@
         <v>-0.45</v>
       </c>
       <c r="N21">
-        <v>-2.01</v>
+        <v>-2.0099999999999998</v>
       </c>
       <c r="O21">
-        <v>-2.01</v>
+        <v>-2.0099999999999998</v>
       </c>
       <c r="P21">
-        <v>18.17</v>
+        <v>18.170000000000002</v>
       </c>
       <c r="Q21">
-        <v>-1.11</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="R21">
-        <v>-1.11</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="S21">
-        <v>-1.11</v>
+        <v>-1.1100000000000001</v>
       </c>
       <c r="T21">
-        <v>-1.11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20">
+        <v>-1.1100000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>102</v>
       </c>
@@ -4901,10 +4935,10 @@
         <v>3.66</v>
       </c>
       <c r="D22">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="E22">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F22">
         <v>0.63</v>
@@ -4946,7 +4980,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>103</v>
       </c>
@@ -4957,7 +4991,7 @@
         <v>4.91</v>
       </c>
       <c r="D23">
-        <v>2.43</v>
+        <v>2.4300000000000002</v>
       </c>
       <c r="E23">
         <v>0.13</v>
@@ -5005,7 +5039,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>104</v>
       </c>
@@ -5064,7 +5098,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>105</v>
       </c>
@@ -5120,7 +5154,7 @@
         <v>-0.27</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>106</v>
       </c>
@@ -5134,7 +5168,7 @@
         <v>1.79</v>
       </c>
       <c r="E26">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="F26">
         <v>0.98</v>
@@ -5182,7 +5216,7 @@
         <v>-0.47</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>107</v>
       </c>
@@ -5202,10 +5236,10 @@
         <v>0.87</v>
       </c>
       <c r="G27">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H27">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="I27">
         <v>0.21</v>
@@ -5241,7 +5275,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>108</v>
       </c>
@@ -5252,7 +5286,7 @@
         <v>1.94</v>
       </c>
       <c r="D28">
-        <v>0.9399999999999999</v>
+        <v>0.94</v>
       </c>
       <c r="E28">
         <v>0.03</v>
@@ -5300,7 +5334,7 @@
         <v>0.33</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>109</v>
       </c>
@@ -5356,7 +5390,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>110</v>
       </c>
@@ -5367,13 +5401,13 @@
         <v>1.77</v>
       </c>
       <c r="D30">
-        <v>1.12</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="E30">
         <v>0.03</v>
       </c>
       <c r="F30">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="G30">
         <v>0.33</v>
@@ -5415,7 +5449,7 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>111</v>
       </c>
@@ -5432,7 +5466,7 @@
         <v>0.06</v>
       </c>
       <c r="F31">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="G31">
         <v>0.49</v>
@@ -5477,7 +5511,7 @@
         <v>-7.72</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>112</v>
       </c>
@@ -5536,15 +5570,15 @@
         <v>0.21</v>
       </c>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>113</v>
       </c>
       <c r="B33">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="C33">
-        <v>2.22</v>
+        <v>2.2200000000000002</v>
       </c>
       <c r="D33">
         <v>1.07</v>
@@ -5595,7 +5629,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>114</v>
       </c>
@@ -5654,7 +5688,7 @@
         <v>0.36</v>
       </c>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>115</v>
       </c>
@@ -5686,7 +5720,7 @@
         <v>0.06</v>
       </c>
       <c r="K35">
-        <v>-0.07000000000000001</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="L35">
         <v>-1.49</v>
@@ -5716,7 +5750,7 @@
         <v>-0.83</v>
       </c>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>116</v>
       </c>
@@ -5727,7 +5761,7 @@
         <v>0.91</v>
       </c>
       <c r="D36">
-        <v>1.16</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="E36">
         <v>0.37</v>
@@ -5745,22 +5779,22 @@
         <v>-1</v>
       </c>
       <c r="J36">
-        <v>0.07000000000000001</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="K36">
         <v>-1.07</v>
       </c>
       <c r="L36">
-        <v>-1.14</v>
+        <v>-1.1399999999999999</v>
       </c>
       <c r="M36">
         <v>-0.01</v>
       </c>
       <c r="N36">
-        <v>-1.13</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="O36">
-        <v>-1.13</v>
+        <v>-1.1299999999999999</v>
       </c>
       <c r="P36">
         <v>18.27</v>
@@ -5778,7 +5812,7 @@
         <v>-0.62</v>
       </c>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>117</v>
       </c>
@@ -5792,7 +5826,7 @@
         <v>0.25</v>
       </c>
       <c r="E37">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F37">
         <v>0.39</v>
@@ -5840,7 +5874,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>118</v>
       </c>
@@ -5854,7 +5888,7 @@
         <v>0.24</v>
       </c>
       <c r="E38">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F38">
         <v>0.31</v>
@@ -5866,7 +5900,7 @@
         <v>0.03</v>
       </c>
       <c r="I38">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="J38">
         <v>0.04</v>
@@ -5890,45 +5924,45 @@
         <v>18.27</v>
       </c>
       <c r="Q38">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="R38">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="S38">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="T38">
-        <v>0.29</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20">
+        <v>0.28999999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>119</v>
       </c>
       <c r="B39">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C39">
-        <v>1.14</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="D39">
         <v>0.38</v>
       </c>
       <c r="E39">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="F39">
         <v>0.19</v>
       </c>
       <c r="G39">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="H39">
         <v>0.01</v>
       </c>
       <c r="I39">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="J39">
         <v>0.04</v>
@@ -5961,7 +5995,7 @@
         <v>0.13</v>
       </c>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>120</v>
       </c>
@@ -5972,10 +6006,10 @@
         <v>1.21</v>
       </c>
       <c r="D40">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="E40">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F40">
         <v>0.43</v>
@@ -6023,7 +6057,7 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>121</v>
       </c>
@@ -6034,7 +6068,7 @@
         <v>1.66</v>
       </c>
       <c r="D41">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="E41">
         <v>0.38</v>
@@ -6085,7 +6119,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>122</v>
       </c>
@@ -6099,7 +6133,7 @@
         <v>0.36</v>
       </c>
       <c r="E42">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F42">
         <v>0.41</v>
@@ -6147,7 +6181,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>123</v>
       </c>
@@ -6161,7 +6195,7 @@
         <v>0.34</v>
       </c>
       <c r="E43">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F43">
         <v>0.59</v>
@@ -6209,7 +6243,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>124</v>
       </c>
@@ -6226,13 +6260,13 @@
         <v>0.33</v>
       </c>
       <c r="F44">
-        <v>0.55</v>
+        <v>0.55000000000000004</v>
       </c>
       <c r="G44">
         <v>0.18</v>
       </c>
       <c r="H44">
-        <v>0.29</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="I44">
         <v>0.47</v>
@@ -6271,7 +6305,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>125</v>
       </c>
@@ -6330,7 +6364,7 @@
         <v>0.11</v>
       </c>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>126</v>
       </c>
@@ -6344,13 +6378,13 @@
         <v>0.54</v>
       </c>
       <c r="E46">
-        <v>0.28</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="F46">
         <v>0.63</v>
       </c>
       <c r="G46">
-        <v>0.14</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="H46">
         <v>0.9</v>
@@ -6398,14 +6432,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="14" max="14" width="27.88671875" customWidth="1"/>
+    <col min="15" max="15" width="30.21875" customWidth="1"/>
+    <col min="16" max="16" width="26.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>127</v>
       </c>
@@ -6461,7 +6500,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="2" spans="1:18">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -6517,12 +6556,12 @@
         <v>7.37</v>
       </c>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
-        <v>4.89</v>
+        <v>4.8899999999999997</v>
       </c>
       <c r="C3">
         <v>0.84</v>
@@ -6567,13 +6606,13 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>19.81</v>
+        <v>19.809999999999999</v>
       </c>
       <c r="R3">
         <v>11.44</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6596,19 +6635,19 @@
         <v>-449.3</v>
       </c>
       <c r="H4">
-        <v>-618.9299999999999</v>
+        <v>-618.92999999999995</v>
       </c>
       <c r="I4">
-        <v>-623.4299999999999</v>
+        <v>-623.42999999999995</v>
       </c>
       <c r="J4">
         <v>-668.4</v>
       </c>
       <c r="K4">
-        <v>-32.09</v>
+        <v>-32.090000000000003</v>
       </c>
       <c r="L4">
-        <v>-18.24</v>
+        <v>-18.239999999999998</v>
       </c>
       <c r="M4">
         <v>0.02</v>
@@ -6623,13 +6662,13 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>16.08</v>
+        <v>16.079999999999998</v>
       </c>
       <c r="R4">
         <v>-4.92</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6682,10 +6721,10 @@
         <v>16.93</v>
       </c>
       <c r="R5">
-        <v>-39.73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>-39.729999999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -6696,7 +6735,7 @@
         <v>-0.01</v>
       </c>
       <c r="D6">
-        <v>-0.07000000000000001</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="E6">
         <v>-0.11</v>
@@ -6720,7 +6759,7 @@
         <v>-1.85</v>
       </c>
       <c r="L6">
-        <v>-1.09</v>
+        <v>-1.0900000000000001</v>
       </c>
       <c r="M6">
         <v>0.04</v>
@@ -6741,7 +6780,7 @@
         <v>-1382.06</v>
       </c>
     </row>
-    <row r="7" spans="1:18">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -6791,13 +6830,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16.67</v>
+        <v>16.670000000000002</v>
       </c>
       <c r="R7">
         <v>-266.58</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -6817,7 +6856,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>90.73999999999999</v>
+        <v>90.74</v>
       </c>
       <c r="H8">
         <v>15.84</v>
@@ -6853,7 +6892,7 @@
         <v>91.89</v>
       </c>
     </row>
-    <row r="9" spans="1:18">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -6876,16 +6915,16 @@
         <v>-2315.48</v>
       </c>
       <c r="H9">
-        <v>-2348.26</v>
+        <v>-2348.2600000000002</v>
       </c>
       <c r="I9">
-        <v>-2348.26</v>
+        <v>-2348.2600000000002</v>
       </c>
       <c r="J9">
         <v>-4022.49</v>
       </c>
       <c r="K9">
-        <v>-1228.59</v>
+        <v>-1228.5899999999999</v>
       </c>
       <c r="L9">
         <v>-94.61</v>
@@ -6909,7 +6948,7 @@
         <v>-0.54</v>
       </c>
     </row>
-    <row r="10" spans="1:18">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -6938,7 +6977,7 @@
         <v>-54.18</v>
       </c>
       <c r="J10">
-        <v>-66.15000000000001</v>
+        <v>-66.150000000000006</v>
       </c>
       <c r="K10">
         <v>-1.67</v>
@@ -6965,7 +7004,7 @@
         <v>-392</v>
       </c>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -7021,7 +7060,7 @@
         <v>-209.13</v>
       </c>
     </row>
-    <row r="12" spans="1:18">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -7044,10 +7083,10 @@
         <v>13.28</v>
       </c>
       <c r="H12">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="I12">
-        <v>2.18</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="J12">
         <v>-5.82</v>
@@ -7071,13 +7110,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>65.81999999999999</v>
+        <v>65.819999999999993</v>
       </c>
       <c r="R12">
         <v>51.3</v>
       </c>
     </row>
-    <row r="13" spans="1:18">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -7127,13 +7166,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>71.15000000000001</v>
+        <v>71.150000000000006</v>
       </c>
       <c r="R13">
         <v>29.36</v>
       </c>
     </row>
-    <row r="14" spans="1:18">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -7156,7 +7195,7 @@
         <v>35.07</v>
       </c>
       <c r="H14">
-        <v>34.48</v>
+        <v>34.479999999999997</v>
       </c>
       <c r="I14">
         <v>34.44</v>
@@ -7186,10 +7225,10 @@
         <v>107.65</v>
       </c>
       <c r="R14">
-        <v>72.93000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>72.930000000000007</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -7206,7 +7245,7 @@
         <v>1.39</v>
       </c>
       <c r="F15">
-        <v>1.09</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="G15">
         <v>13.95</v>
@@ -7245,7 +7284,7 @@
         <v>17.68</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -7295,18 +7334,18 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34.16</v>
+        <v>34.159999999999997</v>
       </c>
       <c r="R16">
         <v>-54.8</v>
       </c>
     </row>
-    <row r="17" spans="1:18">
+    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17">
-        <v>4.39</v>
+        <v>4.3899999999999997</v>
       </c>
       <c r="C17">
         <v>0.39</v>
@@ -7321,7 +7360,7 @@
         <v>-7.84</v>
       </c>
       <c r="G17">
-        <v>8.880000000000001</v>
+        <v>8.8800000000000008</v>
       </c>
       <c r="H17">
         <v>4.76</v>
@@ -7357,7 +7396,7 @@
         <v>12.01</v>
       </c>
     </row>
-    <row r="18" spans="1:18">
+    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -7386,10 +7425,10 @@
         <v>0.44</v>
       </c>
       <c r="J18">
-        <v>-0.07000000000000001</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="K18">
-        <v>-0.07000000000000001</v>
+        <v>-7.0000000000000007E-2</v>
       </c>
       <c r="L18">
         <v>-0.03</v>
@@ -7413,7 +7452,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="19" spans="1:18">
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -7439,10 +7478,10 @@
         <v>13.28</v>
       </c>
       <c r="I19">
-        <v>9.529999999999999</v>
+        <v>9.5299999999999994</v>
       </c>
       <c r="J19">
-        <v>9.710000000000001</v>
+        <v>9.7100000000000009</v>
       </c>
       <c r="K19">
         <v>8.93</v>
@@ -7469,7 +7508,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="20" spans="1:18">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -7480,7 +7519,7 @@
         <v>1.18</v>
       </c>
       <c r="D20">
-        <v>0.5600000000000001</v>
+        <v>0.56000000000000005</v>
       </c>
       <c r="E20">
         <v>0.42</v>
@@ -7525,7 +7564,7 @@
         <v>17.87</v>
       </c>
     </row>
-    <row r="21" spans="1:18">
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -7533,7 +7572,7 @@
         <v>1.97</v>
       </c>
       <c r="C21">
-        <v>1.1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="D21">
         <v>0.72</v>
@@ -7548,10 +7587,10 @@
         <v>55.73</v>
       </c>
       <c r="H21">
-        <v>36.41</v>
+        <v>36.409999999999997</v>
       </c>
       <c r="I21">
-        <v>34.62</v>
+        <v>34.619999999999997</v>
       </c>
       <c r="J21">
         <v>35.4</v>
@@ -7560,7 +7599,7 @@
         <v>6.8</v>
       </c>
       <c r="L21">
-        <v>5.06</v>
+        <v>5.0599999999999996</v>
       </c>
       <c r="M21">
         <v>0.03</v>

--- a/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Adroit Infotech Ltd/Pruned_Excel/Final_Parameters/Adroit Infotech Ltd_Cleaned_Data_Updated.xlsx
+++ b/Financial_Data/MoneyControl/Companies/IT Services & Consulting/Adroit Infotech Ltd/Pruned_Excel/Final_Parameters/Adroit Infotech Ltd_Cleaned_Data_Updated.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharm\OneDrive\Desktop\Kishan\Contractzy\WebScrapping\Tutorial\Financial_Data\MoneyControl\Companies\IT Services &amp; Consulting\Adroit Infotech Ltd\Pruned_Excel\Final_Parameters\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{785A1591-DD3F-4C44-A6DE-75D1589951D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Balance_Sheet" sheetId="1" r:id="rId1"/>
@@ -19,12 +13,12 @@
     <sheet name="Quarterly" sheetId="4" r:id="rId4"/>
     <sheet name="Ratio" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="146">
   <si>
     <t>Balance Sheet of Adroit Infotech(in Rs. Cr.)</t>
   </si>
@@ -243,6 +237,9 @@
   </si>
   <si>
     <t>P/l before exceptional items &amp; tax</t>
+  </si>
+  <si>
+    <t>Exceptional items</t>
   </si>
   <si>
     <t>P/l before tax</t>
@@ -464,8 +461,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -528,21 +525,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -580,7 +569,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -614,7 +603,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -649,10 +637,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -825,18 +812,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="6" max="6" width="17.88671875" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,7 +860,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -918,7 +901,7 @@
         <v>16.93</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -959,7 +942,7 @@
         <v>27.97</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -994,13 +977,13 @@
         <v>6.39</v>
       </c>
       <c r="L4">
-        <v>20.239999999999998</v>
+        <v>20.24</v>
       </c>
       <c r="M4">
         <v>26.63</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1041,7 +1024,7 @@
         <v>21.11</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1067,10 +1050,10 @@
         <v>23.54</v>
       </c>
       <c r="I6">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="J6">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="K6">
         <v>5.56</v>
@@ -1082,7 +1065,7 @@
         <v>23.54</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1099,10 +1082,10 @@
         <v>13.64</v>
       </c>
       <c r="F7">
-        <v>9.8800000000000008</v>
+        <v>9.880000000000001</v>
       </c>
       <c r="G7">
-        <v>10.039999999999999</v>
+        <v>10.04</v>
       </c>
       <c r="H7">
         <v>23.67</v>
@@ -1123,7 +1106,7 @@
         <v>23.67</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1164,7 +1147,7 @@
         <v>23.75</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1196,7 +1179,7 @@
         <v>2.46</v>
       </c>
       <c r="K9">
-        <v>4.6100000000000003</v>
+        <v>4.61</v>
       </c>
       <c r="L9">
         <v>11.92</v>
@@ -1205,7 +1188,7 @@
         <v>16.53</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1219,7 +1202,7 @@
         <v>-1.37</v>
       </c>
       <c r="E10">
-        <v>16.100000000000001</v>
+        <v>16.1</v>
       </c>
       <c r="F10">
         <v>0.09</v>
@@ -1228,7 +1211,7 @@
         <v>0.23</v>
       </c>
       <c r="H10">
-        <v>16.329999999999998</v>
+        <v>16.33</v>
       </c>
       <c r="I10">
         <v>2.33</v>
@@ -1243,10 +1226,10 @@
         <v>13.66</v>
       </c>
       <c r="M10">
-        <v>16.329999999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+        <v>16.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1287,7 +1270,7 @@
         <v>16.18</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1310,7 +1293,7 @@
         <v>0.46</v>
       </c>
       <c r="H12">
-        <v>19.559999999999999</v>
+        <v>19.56</v>
       </c>
       <c r="I12">
         <v>0.04</v>
@@ -1325,10 +1308,10 @@
         <v>16.41</v>
       </c>
       <c r="M12">
-        <v>19.559999999999999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+        <v>19.56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1342,7 +1325,7 @@
         <v>0.09</v>
       </c>
       <c r="E13">
-        <v>17.559999999999999</v>
+        <v>17.56</v>
       </c>
       <c r="F13">
         <v>0.32</v>
@@ -1363,13 +1346,13 @@
         <v>11.14</v>
       </c>
       <c r="L13">
-        <v>8.11</v>
+        <v>8.109999999999999</v>
       </c>
       <c r="M13">
         <v>19.25</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1404,13 +1387,13 @@
         <v>3.43</v>
       </c>
       <c r="L14">
-        <v>20.170000000000002</v>
+        <v>20.17</v>
       </c>
       <c r="M14">
         <v>23.6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1451,7 +1434,7 @@
         <v>33.04</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1492,7 +1475,7 @@
         <v>34.31</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1509,13 +1492,13 @@
         <v>6.31</v>
       </c>
       <c r="F17">
-        <v>10.050000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="G17">
         <v>10.94</v>
       </c>
       <c r="H17">
-        <v>17.399999999999999</v>
+        <v>17.4</v>
       </c>
       <c r="I17">
         <v>0.4</v>
@@ -1530,10 +1513,10 @@
         <v>4.95</v>
       </c>
       <c r="M17">
-        <v>17.399999999999999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+        <v>17.4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -1559,7 +1542,7 @@
         <v>14.59</v>
       </c>
       <c r="I18">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="J18">
         <v>8.94</v>
@@ -1574,7 +1557,7 @@
         <v>14.59</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -1597,7 +1580,7 @@
         <v>4.62</v>
       </c>
       <c r="H19">
-        <v>17.510000000000002</v>
+        <v>17.51</v>
       </c>
       <c r="I19">
         <v>1.23</v>
@@ -1612,10 +1595,10 @@
         <v>6.7</v>
       </c>
       <c r="M19">
-        <v>17.510000000000002</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+        <v>17.51</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -1656,7 +1639,7 @@
         <v>30.65</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -1691,7 +1674,7 @@
         <v>31.02</v>
       </c>
       <c r="L21">
-        <v>10.050000000000001</v>
+        <v>10.05</v>
       </c>
       <c r="M21">
         <v>41.08</v>
@@ -1703,19 +1686,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="6" max="6" width="27" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>33</v>
       </c>
@@ -1744,7 +1722,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1773,7 +1751,7 @@
         <v>0.17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1802,21 +1780,21 @@
         <v>0.51</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>15</v>
       </c>
       <c r="B4">
-        <v>-4.8600000000000003</v>
+        <v>-4.86</v>
       </c>
       <c r="C4">
-        <v>-4.1399999999999997</v>
+        <v>-4.14</v>
       </c>
       <c r="D4">
         <v>-3.51</v>
       </c>
       <c r="E4">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -1831,7 +1809,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1860,7 +1838,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1889,7 +1867,7 @@
         <v>0.19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1918,7 +1896,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1947,7 +1925,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1967,7 +1945,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.56000000000000005</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H9">
         <v>0.05</v>
@@ -1976,7 +1954,7 @@
         <v>0.62</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2005,7 +1983,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2034,7 +2012,7 @@
         <v>0.26</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2042,7 +2020,7 @@
         <v>0.21</v>
       </c>
       <c r="C12">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="D12">
         <v>-2.66</v>
@@ -2063,7 +2041,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -2092,7 +2070,7 @@
         <v>0.04</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -2100,7 +2078,7 @@
         <v>1.45</v>
       </c>
       <c r="C14">
-        <v>0.69</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="D14">
         <v>3.65</v>
@@ -2121,7 +2099,7 @@
         <v>6.63</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -2129,13 +2107,13 @@
         <v>2.54</v>
       </c>
       <c r="C15">
-        <v>-2.1800000000000002</v>
+        <v>-2.18</v>
       </c>
       <c r="D15">
         <v>-1.81</v>
       </c>
       <c r="E15">
-        <v>-2.5499999999999998</v>
+        <v>-2.55</v>
       </c>
       <c r="F15">
         <v>0</v>
@@ -2150,7 +2128,7 @@
         <v>0.09</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -2158,7 +2136,7 @@
         <v>-1.35</v>
       </c>
       <c r="C16">
-        <v>8.6300000000000008</v>
+        <v>8.630000000000001</v>
       </c>
       <c r="D16">
         <v>-8.69</v>
@@ -2179,7 +2157,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2208,7 +2186,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2237,7 +2215,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2245,10 +2223,10 @@
         <v>0.61</v>
       </c>
       <c r="C19">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="D19">
-        <v>-1.1200000000000001</v>
+        <v>-1.12</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2263,10 +2241,10 @@
         <v>0.02</v>
       </c>
       <c r="I19">
-        <v>7.0000000000000007E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2286,21 +2264,21 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="H20">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I20">
         <v>0.2</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9">
       <c r="A21" t="s">
         <v>32</v>
       </c>
       <c r="B21">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="C21">
         <v>0.75</v>
@@ -2330,17 +2308,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V21"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="15" max="15" width="21.109375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>42</v>
       </c>
@@ -2408,7 +2383,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -2476,7 +2451,7 @@
         <v>0.53</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -2493,13 +2468,13 @@
         <v>0.02</v>
       </c>
       <c r="F3">
-        <v>10.029999999999999</v>
+        <v>10.03</v>
       </c>
       <c r="G3">
         <v>13.28</v>
       </c>
       <c r="H3">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="I3">
         <v>0.01</v>
@@ -2508,7 +2483,7 @@
         <v>1</v>
       </c>
       <c r="K3">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="L3">
         <v>9.31</v>
@@ -2544,7 +2519,7 @@
         <v>0.18</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -2600,10 +2575,10 @@
         <v>-4.84</v>
       </c>
       <c r="S4">
-        <v>-4.8600000000000003</v>
+        <v>-4.86</v>
       </c>
       <c r="T4">
-        <v>-4.8600000000000003</v>
+        <v>-4.86</v>
       </c>
       <c r="U4">
         <v>-2.37</v>
@@ -2612,7 +2587,7 @@
         <v>-2.37</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2638,7 +2613,7 @@
         <v>0.02</v>
       </c>
       <c r="I5">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J5">
         <v>0.5</v>
@@ -2680,18 +2655,18 @@
         <v>-0.49</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>17</v>
       </c>
       <c r="B6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="D6">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="E6">
         <v>5.35</v>
@@ -2748,7 +2723,7 @@
         <v>-0.13</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2816,7 +2791,7 @@
         <v>-0.12</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2884,7 +2859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2922,10 +2897,10 @@
         <v>9.52</v>
       </c>
       <c r="M9">
-        <v>-9.1300000000000008</v>
+        <v>-9.130000000000001</v>
       </c>
       <c r="N9">
-        <v>-9.1300000000000008</v>
+        <v>-9.130000000000001</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -2937,7 +2912,7 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>-9.1300000000000008</v>
+        <v>-9.130000000000001</v>
       </c>
       <c r="S9">
         <v>-15.64</v>
@@ -2952,7 +2927,7 @@
         <v>-6.59</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -3020,7 +2995,7 @@
         <v>-0.15</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -3088,7 +3063,7 @@
         <v>-0.08</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -3123,7 +3098,7 @@
         <v>1.9</v>
       </c>
       <c r="L12">
-        <v>9.4499999999999993</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="M12">
         <v>0.21</v>
@@ -3144,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>-0.56000000000000005</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="T12">
-        <v>-0.56000000000000005</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="U12">
         <v>-0.32</v>
@@ -3156,7 +3131,7 @@
         <v>-0.32</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -3191,7 +3166,7 @@
         <v>0.99</v>
       </c>
       <c r="L13">
-        <v>8.3699999999999992</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="M13">
         <v>2.36</v>
@@ -3224,7 +3199,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -3241,7 +3216,7 @@
         <v>0.06</v>
       </c>
       <c r="F14">
-        <v>4.2699999999999996</v>
+        <v>4.27</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -3292,7 +3267,7 @@
         <v>0.75</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -3342,7 +3317,7 @@
         <v>-0.02</v>
       </c>
       <c r="Q15">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="R15">
         <v>1.99</v>
@@ -3354,13 +3329,13 @@
         <v>1.99</v>
       </c>
       <c r="U15">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="V15">
-        <v>1.0900000000000001</v>
-      </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.3">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -3428,7 +3403,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -3442,7 +3417,7 @@
         <v>8.02</v>
       </c>
       <c r="E17">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="F17">
         <v>8.16</v>
@@ -3496,7 +3471,7 @@
         <v>-7.84</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -3525,7 +3500,7 @@
         <v>0.18</v>
       </c>
       <c r="J18">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="K18">
         <v>1.06</v>
@@ -3564,7 +3539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -3632,7 +3607,7 @@
         <v>0.34</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -3655,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>1.1499999999999999</v>
+        <v>1.15</v>
       </c>
       <c r="I20">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="J20">
         <v>1.25</v>
@@ -3679,7 +3654,7 @@
         <v>0.03</v>
       </c>
       <c r="P20">
-        <v>-0.55000000000000004</v>
+        <v>-0.55</v>
       </c>
       <c r="Q20">
         <v>-0.52</v>
@@ -3700,7 +3675,7 @@
         <v>0.73</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -3729,7 +3704,7 @@
         <v>0.11</v>
       </c>
       <c r="J21">
-        <v>1.1299999999999999</v>
+        <v>1.13</v>
       </c>
       <c r="K21">
         <v>2.06</v>
@@ -3738,10 +3713,10 @@
         <v>4.82</v>
       </c>
       <c r="M21">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="N21">
-        <v>2.0299999999999998</v>
+        <v>2.03</v>
       </c>
       <c r="O21">
         <v>0.01</v>
@@ -3774,20 +3749,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:T46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="10" max="10" width="11.88671875" customWidth="1"/>
-    <col min="11" max="11" width="16.21875" customWidth="1"/>
-    <col min="13" max="13" width="9.77734375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>64</v>
       </c>
@@ -3848,10 +3817,13 @@
       <c r="T1" s="1" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U1" s="1" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B2">
         <v>0.03</v>
@@ -3874,22 +3846,22 @@
       <c r="K2">
         <v>-0.02</v>
       </c>
-      <c r="L2">
-        <v>-0.02</v>
-      </c>
-      <c r="N2">
+      <c r="M2">
         <v>-0.02</v>
       </c>
       <c r="O2">
         <v>-0.02</v>
       </c>
       <c r="P2">
+        <v>-0.02</v>
+      </c>
+      <c r="Q2">
         <v>17.47</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -3909,22 +3881,22 @@
       <c r="K3">
         <v>-0.04</v>
       </c>
-      <c r="L3">
-        <v>-0.04</v>
-      </c>
-      <c r="N3">
+      <c r="M3">
         <v>-0.04</v>
       </c>
       <c r="O3">
         <v>-0.04</v>
       </c>
       <c r="P3">
+        <v>-0.04</v>
+      </c>
+      <c r="Q3">
         <v>17.47</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B4">
         <v>1.21</v>
@@ -3939,7 +3911,7 @@
         <v>0.03</v>
       </c>
       <c r="F4">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="G4">
         <v>0.24</v>
@@ -3950,34 +3922,34 @@
       <c r="K4">
         <v>0.24</v>
       </c>
-      <c r="L4">
-        <v>0.24</v>
-      </c>
-      <c r="N4">
+      <c r="M4">
         <v>0.24</v>
       </c>
       <c r="O4">
         <v>0.24</v>
       </c>
       <c r="P4">
+        <v>0.24</v>
+      </c>
+      <c r="Q4">
         <v>17.47</v>
       </c>
-      <c r="Q4">
-        <v>0.14000000000000001</v>
-      </c>
       <c r="R4">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="S4">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="T4">
-        <v>0.14000000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.14</v>
+      </c>
+      <c r="U4">
+        <v>0.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C5">
         <v>0.3</v>
@@ -4000,20 +3972,17 @@
       <c r="K5">
         <v>-0.02</v>
       </c>
-      <c r="L5">
-        <v>-0.02</v>
-      </c>
-      <c r="N5">
+      <c r="M5">
         <v>-0.02</v>
       </c>
       <c r="O5">
         <v>-0.02</v>
       </c>
       <c r="P5">
+        <v>-0.02</v>
+      </c>
+      <c r="Q5">
         <v>17.47</v>
-      </c>
-      <c r="Q5">
-        <v>-0.01</v>
       </c>
       <c r="R5">
         <v>-0.01</v>
@@ -4024,10 +3993,13 @@
       <c r="T5">
         <v>-0.01</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U5">
+        <v>-0.01</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B6">
         <v>0.02</v>
@@ -4053,22 +4025,22 @@
       <c r="K6">
         <v>-0.06</v>
       </c>
-      <c r="L6">
-        <v>-0.06</v>
-      </c>
-      <c r="N6">
+      <c r="M6">
         <v>-0.06</v>
       </c>
       <c r="O6">
         <v>-0.06</v>
       </c>
       <c r="P6">
+        <v>-0.06</v>
+      </c>
+      <c r="Q6">
         <v>17.47</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B7">
         <v>1.29</v>
@@ -4094,20 +4066,17 @@
       <c r="K7">
         <v>1.08</v>
       </c>
-      <c r="L7">
-        <v>1.08</v>
-      </c>
-      <c r="N7">
+      <c r="M7">
         <v>1.08</v>
       </c>
       <c r="O7">
         <v>1.08</v>
       </c>
       <c r="P7">
+        <v>1.08</v>
+      </c>
+      <c r="Q7">
         <v>17.47</v>
-      </c>
-      <c r="Q7">
-        <v>0.62</v>
       </c>
       <c r="R7">
         <v>0.62</v>
@@ -4118,10 +4087,13 @@
       <c r="T7">
         <v>0.62</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U7">
+        <v>0.62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B8">
         <v>4.26</v>
@@ -4147,20 +4119,17 @@
       <c r="K8">
         <v>0.72</v>
       </c>
-      <c r="L8">
-        <v>0.72</v>
-      </c>
-      <c r="N8">
+      <c r="M8">
         <v>0.72</v>
       </c>
       <c r="O8">
         <v>0.72</v>
       </c>
       <c r="P8">
+        <v>0.72</v>
+      </c>
+      <c r="Q8">
         <v>17.47</v>
-      </c>
-      <c r="Q8">
-        <v>0.41</v>
       </c>
       <c r="R8">
         <v>0.41</v>
@@ -4171,10 +4140,13 @@
       <c r="T8">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U8">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9">
         <v>3.47</v>
@@ -4183,7 +4155,7 @@
         <v>3.47</v>
       </c>
       <c r="D9">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -4203,20 +4175,17 @@
       <c r="K9">
         <v>0.68</v>
       </c>
-      <c r="L9">
-        <v>0.68</v>
-      </c>
-      <c r="N9">
+      <c r="M9">
         <v>0.68</v>
       </c>
       <c r="O9">
         <v>0.68</v>
       </c>
       <c r="P9">
+        <v>0.68</v>
+      </c>
+      <c r="Q9">
         <v>17.47</v>
-      </c>
-      <c r="Q9">
-        <v>0.39</v>
       </c>
       <c r="R9">
         <v>0.39</v>
@@ -4227,10 +4196,13 @@
       <c r="T9">
         <v>0.39</v>
       </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U9">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B10">
         <v>1.37</v>
@@ -4256,20 +4228,17 @@
       <c r="K10">
         <v>0.53</v>
       </c>
-      <c r="L10">
-        <v>0.53</v>
-      </c>
-      <c r="N10">
+      <c r="M10">
         <v>0.53</v>
       </c>
       <c r="O10">
         <v>0.53</v>
       </c>
       <c r="P10">
+        <v>0.53</v>
+      </c>
+      <c r="Q10">
         <v>17.47</v>
-      </c>
-      <c r="Q10">
-        <v>0.3</v>
       </c>
       <c r="R10">
         <v>0.3</v>
@@ -4280,10 +4249,13 @@
       <c r="T10">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U10">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B11">
         <v>1.19</v>
@@ -4313,19 +4285,19 @@
         <v>0.33</v>
       </c>
       <c r="L11">
-        <v>-0.24</v>
-      </c>
-      <c r="N11">
+        <v>-0.57</v>
+      </c>
+      <c r="M11">
         <v>-0.24</v>
       </c>
       <c r="O11">
         <v>-0.24</v>
       </c>
       <c r="P11">
+        <v>-0.24</v>
+      </c>
+      <c r="Q11">
         <v>17.47</v>
-      </c>
-      <c r="Q11">
-        <v>-0.19</v>
       </c>
       <c r="R11">
         <v>-0.19</v>
@@ -4336,10 +4308,13 @@
       <c r="T11">
         <v>-0.19</v>
       </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U11">
+        <v>-0.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B12">
         <v>1.03</v>
@@ -4368,20 +4343,17 @@
       <c r="K12">
         <v>0.37</v>
       </c>
-      <c r="L12">
-        <v>0.37</v>
-      </c>
-      <c r="N12">
+      <c r="M12">
         <v>0.37</v>
       </c>
       <c r="O12">
         <v>0.37</v>
       </c>
       <c r="P12">
+        <v>0.37</v>
+      </c>
+      <c r="Q12">
         <v>18.07</v>
-      </c>
-      <c r="Q12">
-        <v>0.21</v>
       </c>
       <c r="R12">
         <v>0.21</v>
@@ -4392,10 +4364,13 @@
       <c r="T12">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U12">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B13">
         <v>1.07</v>
@@ -4421,20 +4396,17 @@
       <c r="K13">
         <v>0.34</v>
       </c>
-      <c r="L13">
-        <v>0.34</v>
-      </c>
-      <c r="N13">
+      <c r="M13">
         <v>0.34</v>
       </c>
       <c r="O13">
         <v>0.34</v>
       </c>
       <c r="P13">
+        <v>0.34</v>
+      </c>
+      <c r="Q13">
         <v>17.47</v>
-      </c>
-      <c r="Q13">
-        <v>0.2</v>
       </c>
       <c r="R13">
         <v>0.2</v>
@@ -4445,16 +4417,19 @@
       <c r="T13">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U13">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B14">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="C14">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="D14">
         <v>0.54</v>
@@ -4477,20 +4452,17 @@
       <c r="K14">
         <v>0.35</v>
       </c>
-      <c r="L14">
-        <v>0.35</v>
-      </c>
-      <c r="N14">
+      <c r="M14">
         <v>0.35</v>
       </c>
       <c r="O14">
         <v>0.35</v>
       </c>
       <c r="P14">
+        <v>0.35</v>
+      </c>
+      <c r="Q14">
         <v>17.47</v>
-      </c>
-      <c r="Q14">
-        <v>0.2</v>
       </c>
       <c r="R14">
         <v>0.2</v>
@@ -4501,10 +4473,13 @@
       <c r="T14">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B15">
         <v>1.31</v>
@@ -4533,20 +4508,17 @@
       <c r="K15">
         <v>0.48</v>
       </c>
-      <c r="L15">
-        <v>0.48</v>
-      </c>
-      <c r="N15">
+      <c r="M15">
         <v>0.48</v>
       </c>
       <c r="O15">
         <v>0.48</v>
       </c>
       <c r="P15">
+        <v>0.48</v>
+      </c>
+      <c r="Q15">
         <v>17.47</v>
-      </c>
-      <c r="Q15">
-        <v>0.27</v>
       </c>
       <c r="R15">
         <v>0.27</v>
@@ -4557,10 +4529,13 @@
       <c r="T15">
         <v>0.27</v>
       </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U15">
+        <v>0.27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16">
         <v>0.98</v>
@@ -4592,23 +4567,20 @@
       <c r="K16">
         <v>0.38</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>0.38</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>0.1</v>
       </c>
-      <c r="N16">
-        <v>0.28000000000000003</v>
-      </c>
       <c r="O16">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="P16">
+        <v>0.28</v>
+      </c>
+      <c r="Q16">
         <v>18.07</v>
-      </c>
-      <c r="Q16">
-        <v>0.15</v>
       </c>
       <c r="R16">
         <v>0.15</v>
@@ -4619,16 +4591,19 @@
       <c r="T16">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U16">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B17">
-        <v>8.39</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="C17">
-        <v>8.39</v>
+        <v>8.390000000000001</v>
       </c>
       <c r="D17">
         <v>2.77</v>
@@ -4654,23 +4629,20 @@
       <c r="K17">
         <v>1.72</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>1.72</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>0.34</v>
-      </c>
-      <c r="N17">
-        <v>1.37</v>
       </c>
       <c r="O17">
         <v>1.37</v>
       </c>
       <c r="P17">
+        <v>1.37</v>
+      </c>
+      <c r="Q17">
         <v>18.07</v>
-      </c>
-      <c r="Q17">
-        <v>0.76</v>
       </c>
       <c r="R17">
         <v>0.76</v>
@@ -4681,10 +4653,13 @@
       <c r="T17">
         <v>0.76</v>
       </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U17">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B18">
         <v>5.78</v>
@@ -4716,23 +4691,20 @@
       <c r="K18">
         <v>1.82</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>1.82</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>0.37</v>
-      </c>
-      <c r="N18">
-        <v>1.45</v>
       </c>
       <c r="O18">
         <v>1.45</v>
       </c>
       <c r="P18">
+        <v>1.45</v>
+      </c>
+      <c r="Q18">
         <v>18.07</v>
-      </c>
-      <c r="Q18">
-        <v>0.8</v>
       </c>
       <c r="R18">
         <v>0.8</v>
@@ -4743,10 +4715,13 @@
       <c r="T18">
         <v>0.8</v>
       </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U18">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B19">
         <v>0.72</v>
@@ -4776,25 +4751,22 @@
         <v>0.02</v>
       </c>
       <c r="K19">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="L19">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="M19">
+        <v>0.14</v>
+      </c>
+      <c r="N19">
         <v>0.03</v>
-      </c>
-      <c r="N19">
-        <v>0.11</v>
       </c>
       <c r="O19">
         <v>0.11</v>
       </c>
       <c r="P19">
+        <v>0.11</v>
+      </c>
+      <c r="Q19">
         <v>18.07</v>
-      </c>
-      <c r="Q19">
-        <v>0.06</v>
       </c>
       <c r="R19">
         <v>0.06</v>
@@ -4805,10 +4777,13 @@
       <c r="T19">
         <v>0.06</v>
       </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U19">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B20">
         <v>3.97</v>
@@ -4820,7 +4795,7 @@
         <v>2.85</v>
       </c>
       <c r="E20">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="F20">
         <v>2.63</v>
@@ -4837,20 +4812,17 @@
       <c r="K20">
         <v>-1.7</v>
       </c>
-      <c r="L20">
-        <v>-1.7</v>
-      </c>
-      <c r="N20">
+      <c r="M20">
         <v>-1.7</v>
       </c>
       <c r="O20">
         <v>-1.7</v>
       </c>
       <c r="P20">
+        <v>-1.7</v>
+      </c>
+      <c r="Q20">
         <v>18.27</v>
-      </c>
-      <c r="Q20">
-        <v>-0.93</v>
       </c>
       <c r="R20">
         <v>-0.93</v>
@@ -4861,10 +4833,13 @@
       <c r="T20">
         <v>-0.93</v>
       </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U20">
+        <v>-0.93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B21">
         <v>2.71</v>
@@ -4876,7 +4851,7 @@
         <v>3.01</v>
       </c>
       <c r="E21">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="F21">
         <v>1.88</v>
@@ -4896,37 +4871,37 @@
       <c r="K21">
         <v>-2.46</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>-2.46</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-0.45</v>
       </c>
-      <c r="N21">
-        <v>-2.0099999999999998</v>
-      </c>
       <c r="O21">
-        <v>-2.0099999999999998</v>
+        <v>-2.01</v>
       </c>
       <c r="P21">
-        <v>18.170000000000002</v>
+        <v>-2.01</v>
       </c>
       <c r="Q21">
-        <v>-1.1100000000000001</v>
+        <v>18.17</v>
       </c>
       <c r="R21">
-        <v>-1.1100000000000001</v>
+        <v>-1.11</v>
       </c>
       <c r="S21">
-        <v>-1.1100000000000001</v>
+        <v>-1.11</v>
       </c>
       <c r="T21">
-        <v>-1.1100000000000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+        <v>-1.11</v>
+      </c>
+      <c r="U21">
+        <v>-1.11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B22">
         <v>3.66</v>
@@ -4935,10 +4910,10 @@
         <v>3.66</v>
       </c>
       <c r="D22">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="E22">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="F22">
         <v>0.63</v>
@@ -4955,20 +4930,17 @@
       <c r="K22">
         <v>0.66</v>
       </c>
-      <c r="L22">
-        <v>0.66</v>
-      </c>
-      <c r="N22">
+      <c r="M22">
         <v>0.66</v>
       </c>
       <c r="O22">
         <v>0.66</v>
       </c>
       <c r="P22">
+        <v>0.66</v>
+      </c>
+      <c r="Q22">
         <v>18.27</v>
-      </c>
-      <c r="Q22">
-        <v>0.36</v>
       </c>
       <c r="R22">
         <v>0.36</v>
@@ -4979,10 +4951,13 @@
       <c r="T22">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U22">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B23">
         <v>4.91</v>
@@ -4991,7 +4966,7 @@
         <v>4.91</v>
       </c>
       <c r="D23">
-        <v>2.4300000000000002</v>
+        <v>2.43</v>
       </c>
       <c r="E23">
         <v>0.13</v>
@@ -5014,20 +4989,17 @@
       <c r="K23">
         <v>0.62</v>
       </c>
-      <c r="L23">
-        <v>0.62</v>
-      </c>
-      <c r="N23">
+      <c r="M23">
         <v>0.62</v>
       </c>
       <c r="O23">
         <v>0.62</v>
       </c>
       <c r="P23">
+        <v>0.62</v>
+      </c>
+      <c r="Q23">
         <v>18.27</v>
-      </c>
-      <c r="Q23">
-        <v>0.34</v>
       </c>
       <c r="R23">
         <v>0.34</v>
@@ -5038,10 +5010,13 @@
       <c r="T23">
         <v>0.34</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U23">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21">
       <c r="A24" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B24">
         <v>1.71</v>
@@ -5073,20 +5048,17 @@
       <c r="K24">
         <v>0.08</v>
       </c>
-      <c r="L24">
-        <v>0.08</v>
-      </c>
-      <c r="N24">
+      <c r="M24">
         <v>0.08</v>
       </c>
       <c r="O24">
         <v>0.08</v>
       </c>
       <c r="P24">
+        <v>0.08</v>
+      </c>
+      <c r="Q24">
         <v>18.27</v>
-      </c>
-      <c r="Q24">
-        <v>0.05</v>
       </c>
       <c r="R24">
         <v>0.05</v>
@@ -5097,10 +5069,13 @@
       <c r="T24">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U24">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B25">
         <v>1.7</v>
@@ -5129,20 +5104,17 @@
       <c r="K25">
         <v>-0.49</v>
       </c>
-      <c r="L25">
-        <v>-0.49</v>
-      </c>
-      <c r="N25">
+      <c r="M25">
         <v>-0.49</v>
       </c>
       <c r="O25">
         <v>-0.49</v>
       </c>
       <c r="P25">
+        <v>-0.49</v>
+      </c>
+      <c r="Q25">
         <v>18.27</v>
-      </c>
-      <c r="Q25">
-        <v>-0.27</v>
       </c>
       <c r="R25">
         <v>-0.27</v>
@@ -5153,10 +5125,13 @@
       <c r="T25">
         <v>-0.27</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U25">
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21">
       <c r="A26" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B26">
         <v>1.88</v>
@@ -5168,7 +5143,7 @@
         <v>1.79</v>
       </c>
       <c r="E26">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="F26">
         <v>0.98</v>
@@ -5188,23 +5163,20 @@
       <c r="K26">
         <v>-0.92</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>-0.92</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>-0.06</v>
-      </c>
-      <c r="N26">
-        <v>-0.86</v>
       </c>
       <c r="O26">
         <v>-0.86</v>
       </c>
       <c r="P26">
+        <v>-0.86</v>
+      </c>
+      <c r="Q26">
         <v>18.27</v>
-      </c>
-      <c r="Q26">
-        <v>-0.47</v>
       </c>
       <c r="R26">
         <v>-0.47</v>
@@ -5215,10 +5187,13 @@
       <c r="T26">
         <v>-0.47</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U26">
+        <v>-0.47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B27">
         <v>2.61</v>
@@ -5236,10 +5211,10 @@
         <v>0.87</v>
       </c>
       <c r="G27">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="H27">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="I27">
         <v>0.21</v>
@@ -5250,20 +5225,17 @@
       <c r="K27">
         <v>0.18</v>
       </c>
-      <c r="L27">
-        <v>0.18</v>
-      </c>
-      <c r="N27">
+      <c r="M27">
         <v>0.18</v>
       </c>
       <c r="O27">
         <v>0.18</v>
       </c>
       <c r="P27">
+        <v>0.18</v>
+      </c>
+      <c r="Q27">
         <v>18.27</v>
-      </c>
-      <c r="Q27">
-        <v>0.1</v>
       </c>
       <c r="R27">
         <v>0.1</v>
@@ -5274,10 +5246,13 @@
       <c r="T27">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U27">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21">
       <c r="A28" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B28">
         <v>1.94</v>
@@ -5286,7 +5261,7 @@
         <v>1.94</v>
       </c>
       <c r="D28">
-        <v>0.94</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="E28">
         <v>0.03</v>
@@ -5309,20 +5284,17 @@
       <c r="K28">
         <v>0.59</v>
       </c>
-      <c r="L28">
-        <v>0.59</v>
-      </c>
-      <c r="N28">
+      <c r="M28">
         <v>0.59</v>
       </c>
       <c r="O28">
         <v>0.59</v>
       </c>
       <c r="P28">
+        <v>0.59</v>
+      </c>
+      <c r="Q28">
         <v>18.27</v>
-      </c>
-      <c r="Q28">
-        <v>0.33</v>
       </c>
       <c r="R28">
         <v>0.33</v>
@@ -5333,10 +5305,13 @@
       <c r="T28">
         <v>0.33</v>
       </c>
-    </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U28">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21">
       <c r="A29" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B29">
         <v>1.86</v>
@@ -5365,20 +5340,17 @@
       <c r="K29">
         <v>0.54</v>
       </c>
-      <c r="L29">
-        <v>0.54</v>
-      </c>
-      <c r="N29">
+      <c r="M29">
         <v>0.54</v>
       </c>
       <c r="O29">
         <v>0.54</v>
       </c>
       <c r="P29">
+        <v>0.54</v>
+      </c>
+      <c r="Q29">
         <v>18.27</v>
-      </c>
-      <c r="Q29">
-        <v>0.3</v>
       </c>
       <c r="R29">
         <v>0.3</v>
@@ -5389,10 +5361,13 @@
       <c r="T29">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U29">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21">
       <c r="A30" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B30">
         <v>1.77</v>
@@ -5401,13 +5376,13 @@
         <v>1.77</v>
       </c>
       <c r="D30">
-        <v>1.1200000000000001</v>
+        <v>1.12</v>
       </c>
       <c r="E30">
         <v>0.03</v>
       </c>
       <c r="F30">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="G30">
         <v>0.33</v>
@@ -5424,20 +5399,17 @@
       <c r="K30">
         <v>0.38</v>
       </c>
-      <c r="L30">
-        <v>0.38</v>
-      </c>
-      <c r="N30">
+      <c r="M30">
         <v>0.38</v>
       </c>
       <c r="O30">
         <v>0.38</v>
       </c>
       <c r="P30">
+        <v>0.38</v>
+      </c>
+      <c r="Q30">
         <v>18.27</v>
-      </c>
-      <c r="Q30">
-        <v>0.21</v>
       </c>
       <c r="R30">
         <v>0.21</v>
@@ -5448,10 +5420,13 @@
       <c r="T30">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U30">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21">
       <c r="A31" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -5466,7 +5441,7 @@
         <v>0.06</v>
       </c>
       <c r="F31">
-        <v>0.56000000000000005</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="G31">
         <v>0.49</v>
@@ -5484,22 +5459,22 @@
         <v>0.41</v>
       </c>
       <c r="L31">
+        <v>-14.53</v>
+      </c>
+      <c r="M31">
         <v>-14.12</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>-0.03</v>
-      </c>
-      <c r="N31">
-        <v>-14.1</v>
       </c>
       <c r="O31">
         <v>-14.1</v>
       </c>
       <c r="P31">
+        <v>-14.1</v>
+      </c>
+      <c r="Q31">
         <v>18.27</v>
-      </c>
-      <c r="Q31">
-        <v>-7.72</v>
       </c>
       <c r="R31">
         <v>-7.72</v>
@@ -5510,10 +5485,13 @@
       <c r="T31">
         <v>-7.72</v>
       </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U31">
+        <v>-7.72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B32">
         <v>1.26</v>
@@ -5545,20 +5523,17 @@
       <c r="K32">
         <v>0.39</v>
       </c>
-      <c r="L32">
-        <v>0.39</v>
-      </c>
-      <c r="N32">
+      <c r="M32">
         <v>0.39</v>
       </c>
       <c r="O32">
         <v>0.39</v>
       </c>
       <c r="P32">
+        <v>0.39</v>
+      </c>
+      <c r="Q32">
         <v>18.27</v>
-      </c>
-      <c r="Q32">
-        <v>0.21</v>
       </c>
       <c r="R32">
         <v>0.21</v>
@@ -5569,16 +5544,19 @@
       <c r="T32">
         <v>0.21</v>
       </c>
-    </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U32">
+        <v>0.21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B33">
-        <v>2.2200000000000002</v>
+        <v>2.22</v>
       </c>
       <c r="C33">
-        <v>2.2200000000000002</v>
+        <v>2.22</v>
       </c>
       <c r="D33">
         <v>1.07</v>
@@ -5601,23 +5579,20 @@
       <c r="K33">
         <v>0.47</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.47</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.12</v>
-      </c>
-      <c r="N33">
-        <v>0.35</v>
       </c>
       <c r="O33">
         <v>0.35</v>
       </c>
       <c r="P33">
+        <v>0.35</v>
+      </c>
+      <c r="Q33">
         <v>18.27</v>
-      </c>
-      <c r="Q33">
-        <v>0.19</v>
       </c>
       <c r="R33">
         <v>0.19</v>
@@ -5628,10 +5603,13 @@
       <c r="T33">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U33">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B34">
         <v>1.99</v>
@@ -5660,23 +5638,20 @@
       <c r="K34">
         <v>0.89</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.89</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.23</v>
-      </c>
-      <c r="N34">
-        <v>0.66</v>
       </c>
       <c r="O34">
         <v>0.66</v>
       </c>
       <c r="P34">
+        <v>0.66</v>
+      </c>
+      <c r="Q34">
         <v>18.27</v>
-      </c>
-      <c r="Q34">
-        <v>0.36</v>
       </c>
       <c r="R34">
         <v>0.36</v>
@@ -5687,10 +5662,13 @@
       <c r="T34">
         <v>0.36</v>
       </c>
-    </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U34">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B35">
         <v>0.6</v>
@@ -5720,25 +5698,25 @@
         <v>0.06</v>
       </c>
       <c r="K35">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="L35">
+        <v>-1.42</v>
+      </c>
+      <c r="M35">
         <v>-1.49</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>0.03</v>
-      </c>
-      <c r="N35">
-        <v>-1.53</v>
       </c>
       <c r="O35">
         <v>-1.53</v>
       </c>
       <c r="P35">
+        <v>-1.53</v>
+      </c>
+      <c r="Q35">
         <v>18.27</v>
-      </c>
-      <c r="Q35">
-        <v>-0.83</v>
       </c>
       <c r="R35">
         <v>-0.83</v>
@@ -5749,10 +5727,13 @@
       <c r="T35">
         <v>-0.83</v>
       </c>
-    </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U35">
+        <v>-0.83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B36">
         <v>0.91</v>
@@ -5761,7 +5742,7 @@
         <v>0.91</v>
       </c>
       <c r="D36">
-        <v>1.1599999999999999</v>
+        <v>1.16</v>
       </c>
       <c r="E36">
         <v>0.37</v>
@@ -5779,28 +5760,28 @@
         <v>-1</v>
       </c>
       <c r="J36">
-        <v>7.0000000000000007E-2</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="K36">
         <v>-1.07</v>
       </c>
       <c r="L36">
-        <v>-1.1399999999999999</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="M36">
+        <v>-1.14</v>
+      </c>
+      <c r="N36">
         <v>-0.01</v>
       </c>
-      <c r="N36">
-        <v>-1.1299999999999999</v>
-      </c>
       <c r="O36">
-        <v>-1.1299999999999999</v>
+        <v>-1.13</v>
       </c>
       <c r="P36">
+        <v>-1.13</v>
+      </c>
+      <c r="Q36">
         <v>18.27</v>
-      </c>
-      <c r="Q36">
-        <v>-0.62</v>
       </c>
       <c r="R36">
         <v>-0.62</v>
@@ -5811,10 +5792,13 @@
       <c r="T36">
         <v>-0.62</v>
       </c>
-    </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U36">
+        <v>-0.62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B37">
         <v>1.33</v>
@@ -5826,7 +5810,7 @@
         <v>0.25</v>
       </c>
       <c r="E37">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="F37">
         <v>0.39</v>
@@ -5846,23 +5830,20 @@
       <c r="K37">
         <v>0.37</v>
       </c>
-      <c r="L37">
+      <c r="M37">
         <v>0.37</v>
       </c>
-      <c r="M37">
+      <c r="N37">
         <v>-0.01</v>
-      </c>
-      <c r="N37">
-        <v>0.38</v>
       </c>
       <c r="O37">
         <v>0.38</v>
       </c>
       <c r="P37">
+        <v>0.38</v>
+      </c>
+      <c r="Q37">
         <v>19.29</v>
-      </c>
-      <c r="Q37">
-        <v>0.2</v>
       </c>
       <c r="R37">
         <v>0.2</v>
@@ -5873,10 +5854,13 @@
       <c r="T37">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U37">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B38">
         <v>1.37</v>
@@ -5888,7 +5872,7 @@
         <v>0.24</v>
       </c>
       <c r="E38">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="F38">
         <v>0.31</v>
@@ -5900,7 +5884,7 @@
         <v>0.03</v>
       </c>
       <c r="I38">
-        <v>0.56000000000000005</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="J38">
         <v>0.04</v>
@@ -5908,61 +5892,61 @@
       <c r="K38">
         <v>0.51</v>
       </c>
-      <c r="L38">
+      <c r="M38">
         <v>0.51</v>
       </c>
-      <c r="M38">
+      <c r="N38">
         <v>-0.02</v>
-      </c>
-      <c r="N38">
-        <v>0.53</v>
       </c>
       <c r="O38">
         <v>0.53</v>
       </c>
       <c r="P38">
+        <v>0.53</v>
+      </c>
+      <c r="Q38">
         <v>18.27</v>
       </c>
-      <c r="Q38">
-        <v>0.28999999999999998</v>
-      </c>
       <c r="R38">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="S38">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="T38">
-        <v>0.28999999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+        <v>0.29</v>
+      </c>
+      <c r="U38">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B39">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="C39">
-        <v>1.1399999999999999</v>
+        <v>1.14</v>
       </c>
       <c r="D39">
         <v>0.38</v>
       </c>
       <c r="E39">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="F39">
         <v>0.19</v>
       </c>
       <c r="G39">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="H39">
         <v>0.01</v>
       </c>
       <c r="I39">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="J39">
         <v>0.04</v>
@@ -5970,20 +5954,17 @@
       <c r="K39">
         <v>0.24</v>
       </c>
-      <c r="L39">
-        <v>0.24</v>
-      </c>
-      <c r="N39">
+      <c r="M39">
         <v>0.24</v>
       </c>
       <c r="O39">
         <v>0.24</v>
       </c>
       <c r="P39">
+        <v>0.24</v>
+      </c>
+      <c r="Q39">
         <v>18.27</v>
-      </c>
-      <c r="Q39">
-        <v>0.13</v>
       </c>
       <c r="R39">
         <v>0.13</v>
@@ -5994,10 +5975,13 @@
       <c r="T39">
         <v>0.13</v>
       </c>
-    </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U39">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B40">
         <v>1.21</v>
@@ -6006,10 +5990,10 @@
         <v>1.21</v>
       </c>
       <c r="D40">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="E40">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="F40">
         <v>0.43</v>
@@ -6029,23 +6013,20 @@
       <c r="K40">
         <v>0.23</v>
       </c>
-      <c r="L40">
+      <c r="M40">
         <v>0.23</v>
       </c>
-      <c r="M40">
-        <v>0</v>
-      </c>
       <c r="N40">
-        <v>0.24</v>
+        <v>0</v>
       </c>
       <c r="O40">
         <v>0.24</v>
       </c>
       <c r="P40">
+        <v>0.24</v>
+      </c>
+      <c r="Q40">
         <v>20.27</v>
-      </c>
-      <c r="Q40">
-        <v>0.12</v>
       </c>
       <c r="R40">
         <v>0.12</v>
@@ -6056,10 +6037,13 @@
       <c r="T40">
         <v>0.12</v>
       </c>
-    </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U40">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B41">
         <v>1.66</v>
@@ -6068,7 +6052,7 @@
         <v>1.66</v>
       </c>
       <c r="D41">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="E41">
         <v>0.38</v>
@@ -6091,23 +6075,20 @@
       <c r="K41">
         <v>-0.27</v>
       </c>
-      <c r="L41">
+      <c r="M41">
         <v>-0.27</v>
       </c>
-      <c r="M41">
+      <c r="N41">
         <v>-0.49</v>
-      </c>
-      <c r="N41">
-        <v>0.22</v>
       </c>
       <c r="O41">
         <v>0.22</v>
       </c>
       <c r="P41">
+        <v>0.22</v>
+      </c>
+      <c r="Q41">
         <v>20.27</v>
-      </c>
-      <c r="Q41">
-        <v>0.11</v>
       </c>
       <c r="R41">
         <v>0.11</v>
@@ -6118,10 +6099,13 @@
       <c r="T41">
         <v>0.11</v>
       </c>
-    </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U41">
+        <v>0.11</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B42">
         <v>1.47</v>
@@ -6133,7 +6117,7 @@
         <v>0.36</v>
       </c>
       <c r="E42">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="F42">
         <v>0.41</v>
@@ -6153,23 +6137,20 @@
       <c r="K42">
         <v>0.41</v>
       </c>
-      <c r="L42">
+      <c r="M42">
         <v>0.41</v>
       </c>
-      <c r="M42">
+      <c r="N42">
         <v>-0.01</v>
-      </c>
-      <c r="N42">
-        <v>0.42</v>
       </c>
       <c r="O42">
         <v>0.42</v>
       </c>
       <c r="P42">
+        <v>0.42</v>
+      </c>
+      <c r="Q42">
         <v>21.67</v>
-      </c>
-      <c r="Q42">
-        <v>0.2</v>
       </c>
       <c r="R42">
         <v>0.2</v>
@@ -6180,10 +6161,13 @@
       <c r="T42">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U42">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B43">
         <v>1.61</v>
@@ -6195,7 +6179,7 @@
         <v>0.34</v>
       </c>
       <c r="E43">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="F43">
         <v>0.59</v>
@@ -6215,23 +6199,20 @@
       <c r="K43">
         <v>0.36</v>
       </c>
-      <c r="L43">
+      <c r="M43">
         <v>0.36</v>
       </c>
-      <c r="M43">
+      <c r="N43">
         <v>-0.04</v>
-      </c>
-      <c r="N43">
-        <v>0.4</v>
       </c>
       <c r="O43">
         <v>0.4</v>
       </c>
       <c r="P43">
+        <v>0.4</v>
+      </c>
+      <c r="Q43">
         <v>21.12</v>
-      </c>
-      <c r="Q43">
-        <v>0.19</v>
       </c>
       <c r="R43">
         <v>0.19</v>
@@ -6242,10 +6223,13 @@
       <c r="T43">
         <v>0.19</v>
       </c>
-    </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="U43">
+        <v>0.19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B44">
         <v>1.52</v>
@@ -6260,13 +6244,13 @@
         <v>0.33</v>
       </c>
       <c r="F44">
-        <v>0.55000000000000004</v>
+        <v>0.55</v>
       </c>
       <c r="G44">
         <v>0.18</v>
       </c>
       <c r="H44">
-        <v>0.28999999999999998</v>
+        <v>0.29</v>
       </c>
       <c r="I44">
         <v>0.47</v>
@@ -6277,37 +6261,37 @@
       <c r="K44">
         <v>0.3</v>
       </c>
-      <c r="L44">
+      <c r="M44">
         <v>0.3</v>
       </c>
-      <c r="M44">
+      <c r="N44">
         <v>0.05</v>
-      </c>
-      <c r="N44">
-        <v>0.25</v>
       </c>
       <c r="O44">
         <v>0.25</v>
       </c>
       <c r="P44">
+        <v>0.25</v>
+      </c>
+      <c r="Q44">
         <v>24.01</v>
       </c>
-      <c r="Q44">
+      <c r="R44">
         <v>0.1</v>
       </c>
-      <c r="R44">
+      <c r="S44">
         <v>0.06</v>
       </c>
-      <c r="S44">
+      <c r="T44">
         <v>0.1</v>
       </c>
-      <c r="T44">
+      <c r="U44">
         <v>0.06</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:21">
       <c r="A45" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B45">
         <v>1.52</v>
@@ -6339,34 +6323,34 @@
       <c r="K45">
         <v>0.35</v>
       </c>
-      <c r="L45">
-        <v>0.35</v>
-      </c>
-      <c r="N45">
+      <c r="M45">
         <v>0.35</v>
       </c>
       <c r="O45">
         <v>0.35</v>
       </c>
       <c r="P45">
+        <v>0.35</v>
+      </c>
+      <c r="Q45">
         <v>23.32</v>
       </c>
-      <c r="Q45">
+      <c r="R45">
         <v>0.15</v>
       </c>
-      <c r="R45">
+      <c r="S45">
         <v>0.11</v>
       </c>
-      <c r="S45">
+      <c r="T45">
         <v>0.15</v>
       </c>
-      <c r="T45">
+      <c r="U45">
         <v>0.11</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:21">
       <c r="A46" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B46">
         <v>1.59</v>
@@ -6378,13 +6362,13 @@
         <v>0.54</v>
       </c>
       <c r="E46">
-        <v>0.28000000000000003</v>
+        <v>0.28</v>
       </c>
       <c r="F46">
         <v>0.63</v>
       </c>
       <c r="G46">
-        <v>0.14000000000000001</v>
+        <v>0.14</v>
       </c>
       <c r="H46">
         <v>0.9</v>
@@ -6398,23 +6382,20 @@
       <c r="K46">
         <v>1.03</v>
       </c>
-      <c r="L46">
+      <c r="M46">
         <v>1.03</v>
       </c>
-      <c r="M46">
-        <v>0</v>
-      </c>
       <c r="N46">
-        <v>1.02</v>
+        <v>0</v>
       </c>
       <c r="O46">
         <v>1.02</v>
       </c>
       <c r="P46">
+        <v>1.02</v>
+      </c>
+      <c r="Q46">
         <v>24.08</v>
-      </c>
-      <c r="Q46">
-        <v>0.43</v>
       </c>
       <c r="R46">
         <v>0.43</v>
@@ -6423,6 +6404,9 @@
         <v>0.43</v>
       </c>
       <c r="T46">
+        <v>0.43</v>
+      </c>
+      <c r="U46">
         <v>0.43</v>
       </c>
     </row>
@@ -6432,75 +6416,70 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="14" max="14" width="27.88671875" customWidth="1"/>
-    <col min="15" max="15" width="30.21875" customWidth="1"/>
-    <col min="16" max="16" width="26.33203125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="Q1" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="R1" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -6556,12 +6535,12 @@
         <v>7.37</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18">
       <c r="A3" t="s">
         <v>14</v>
       </c>
       <c r="B3">
-        <v>4.8899999999999997</v>
+        <v>4.89</v>
       </c>
       <c r="C3">
         <v>0.84</v>
@@ -6606,13 +6585,13 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>19.809999999999999</v>
+        <v>19.81</v>
       </c>
       <c r="R3">
         <v>11.44</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -6635,19 +6614,19 @@
         <v>-449.3</v>
       </c>
       <c r="H4">
-        <v>-618.92999999999995</v>
+        <v>-618.9299999999999</v>
       </c>
       <c r="I4">
-        <v>-623.42999999999995</v>
+        <v>-623.4299999999999</v>
       </c>
       <c r="J4">
         <v>-668.4</v>
       </c>
       <c r="K4">
-        <v>-32.090000000000003</v>
+        <v>-32.09</v>
       </c>
       <c r="L4">
-        <v>-18.239999999999998</v>
+        <v>-18.24</v>
       </c>
       <c r="M4">
         <v>0.02</v>
@@ -6662,13 +6641,13 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>16.079999999999998</v>
+        <v>16.08</v>
       </c>
       <c r="R4">
         <v>-4.92</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -6721,10 +6700,10 @@
         <v>16.93</v>
       </c>
       <c r="R5">
-        <v>-39.729999999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+        <v>-39.73</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -6735,7 +6714,7 @@
         <v>-0.01</v>
       </c>
       <c r="D6">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="E6">
         <v>-0.11</v>
@@ -6759,7 +6738,7 @@
         <v>-1.85</v>
       </c>
       <c r="L6">
-        <v>-1.0900000000000001</v>
+        <v>-1.09</v>
       </c>
       <c r="M6">
         <v>0.04</v>
@@ -6780,7 +6759,7 @@
         <v>-1382.06</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -6830,13 +6809,13 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>16.670000000000002</v>
+        <v>16.67</v>
       </c>
       <c r="R7">
         <v>-266.58</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:18">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -6856,7 +6835,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>90.74</v>
+        <v>90.73999999999999</v>
       </c>
       <c r="H8">
         <v>15.84</v>
@@ -6892,7 +6871,7 @@
         <v>91.89</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -6915,16 +6894,16 @@
         <v>-2315.48</v>
       </c>
       <c r="H9">
-        <v>-2348.2600000000002</v>
+        <v>-2348.26</v>
       </c>
       <c r="I9">
-        <v>-2348.2600000000002</v>
+        <v>-2348.26</v>
       </c>
       <c r="J9">
         <v>-4022.49</v>
       </c>
       <c r="K9">
-        <v>-1228.5899999999999</v>
+        <v>-1228.59</v>
       </c>
       <c r="L9">
         <v>-94.61</v>
@@ -6948,7 +6927,7 @@
         <v>-0.54</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -6977,7 +6956,7 @@
         <v>-54.18</v>
       </c>
       <c r="J10">
-        <v>-66.150000000000006</v>
+        <v>-66.15000000000001</v>
       </c>
       <c r="K10">
         <v>-1.67</v>
@@ -7004,7 +6983,7 @@
         <v>-392</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -7060,7 +7039,7 @@
         <v>-209.13</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -7083,10 +7062,10 @@
         <v>13.28</v>
       </c>
       <c r="H12">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="I12">
-        <v>2.1800000000000002</v>
+        <v>2.18</v>
       </c>
       <c r="J12">
         <v>-5.82</v>
@@ -7110,13 +7089,13 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>65.819999999999993</v>
+        <v>65.81999999999999</v>
       </c>
       <c r="R12">
         <v>51.3</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -7166,13 +7145,13 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>71.150000000000006</v>
+        <v>71.15000000000001</v>
       </c>
       <c r="R13">
         <v>29.36</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -7195,7 +7174,7 @@
         <v>35.07</v>
       </c>
       <c r="H14">
-        <v>34.479999999999997</v>
+        <v>34.48</v>
       </c>
       <c r="I14">
         <v>34.44</v>
@@ -7225,10 +7204,10 @@
         <v>107.65</v>
       </c>
       <c r="R14">
-        <v>72.930000000000007</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
+        <v>72.93000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -7245,7 +7224,7 @@
         <v>1.39</v>
       </c>
       <c r="F15">
-        <v>1.0900000000000001</v>
+        <v>1.09</v>
       </c>
       <c r="G15">
         <v>13.95</v>
@@ -7284,7 +7263,7 @@
         <v>17.68</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:18">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -7334,18 +7313,18 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>34.159999999999997</v>
+        <v>34.16</v>
       </c>
       <c r="R16">
         <v>-54.8</v>
       </c>
     </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:18">
       <c r="A17" t="s">
         <v>28</v>
       </c>
       <c r="B17">
-        <v>4.3899999999999997</v>
+        <v>4.39</v>
       </c>
       <c r="C17">
         <v>0.39</v>
@@ -7360,7 +7339,7 @@
         <v>-7.84</v>
       </c>
       <c r="G17">
-        <v>8.8800000000000008</v>
+        <v>8.880000000000001</v>
       </c>
       <c r="H17">
         <v>4.76</v>
@@ -7396,7 +7375,7 @@
         <v>12.01</v>
       </c>
     </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:18">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -7425,10 +7404,10 @@
         <v>0.44</v>
       </c>
       <c r="J18">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="K18">
-        <v>-7.0000000000000007E-2</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="L18">
         <v>-0.03</v>
@@ -7452,7 +7431,7 @@
         <v>6.62</v>
       </c>
     </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:18">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -7478,10 +7457,10 @@
         <v>13.28</v>
       </c>
       <c r="I19">
-        <v>9.5299999999999994</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="J19">
-        <v>9.7100000000000009</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K19">
         <v>8.93</v>
@@ -7508,7 +7487,7 @@
         <v>11.85</v>
       </c>
     </row>
-    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:18">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -7519,7 +7498,7 @@
         <v>1.18</v>
       </c>
       <c r="D20">
-        <v>0.56000000000000005</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="E20">
         <v>0.42</v>
@@ -7564,7 +7543,7 @@
         <v>17.87</v>
       </c>
     </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:18">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -7572,7 +7551,7 @@
         <v>1.97</v>
       </c>
       <c r="C21">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="D21">
         <v>0.72</v>
@@ -7587,10 +7566,10 @@
         <v>55.73</v>
       </c>
       <c r="H21">
-        <v>36.409999999999997</v>
+        <v>36.41</v>
       </c>
       <c r="I21">
-        <v>34.619999999999997</v>
+        <v>34.62</v>
       </c>
       <c r="J21">
         <v>35.4</v>
@@ -7599,7 +7578,7 @@
         <v>6.8</v>
       </c>
       <c r="L21">
-        <v>5.0599999999999996</v>
+        <v>5.06</v>
       </c>
       <c r="M21">
         <v>0.03</v>
